--- a/orca/util/df_train.xlsx
+++ b/orca/util/df_train.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>12022</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
